--- a/Crawling/crawling_data/week_genie/week_genie_20220117.xlsx
+++ b/Crawling/crawling_data/week_genie/week_genie_20220117.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="230">
   <si>
     <t>날짜</t>
   </si>
@@ -118,8 +118,7 @@
     <t>불협화음 (Feat. AKMU) (Prod. by GRAY)</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>Bad Habits</t>
@@ -233,8 +232,7 @@
     <t>2002</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>다시 사랑한다면 (김필 Ver.)</t>
@@ -583,9 +581,6 @@
   </si>
   <si>
     <t>쇼미더머니 10 Semi Final</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>별에서 온 그대 OST Part.7 (SBS 수목드라마)</t>
@@ -1579,7 +1574,7 @@
         <v>127</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1614,7 +1609,7 @@
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1648,7 +1643,7 @@
         <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1665,7 +1660,7 @@
         <v>111</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1682,7 +1677,7 @@
         <v>132</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1716,7 +1711,7 @@
         <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1767,7 +1762,7 @@
         <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1784,7 +1779,7 @@
         <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1818,7 +1813,7 @@
         <v>138</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1835,7 +1830,7 @@
         <v>135</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1869,7 +1864,7 @@
         <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1886,7 +1881,7 @@
         <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1903,7 +1898,7 @@
         <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1920,7 +1915,7 @@
         <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1937,7 +1932,7 @@
         <v>144</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1954,7 +1949,7 @@
         <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2005,7 +2000,7 @@
         <v>135</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2022,7 +2017,7 @@
         <v>112</v>
       </c>
       <c r="E56" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2039,7 +2034,7 @@
         <v>111</v>
       </c>
       <c r="E57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2090,7 +2085,7 @@
         <v>142</v>
       </c>
       <c r="E60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2107,7 +2102,7 @@
         <v>114</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2141,7 +2136,7 @@
         <v>148</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2158,7 +2153,7 @@
         <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2175,7 +2170,7 @@
         <v>111</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2192,7 +2187,7 @@
         <v>131</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2209,7 +2204,7 @@
         <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2226,7 +2221,7 @@
         <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2243,7 +2238,7 @@
         <v>112</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2260,7 +2255,7 @@
         <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2277,7 +2272,7 @@
         <v>152</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2311,7 +2306,7 @@
         <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2345,7 +2340,7 @@
         <v>156</v>
       </c>
       <c r="E75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2379,7 +2374,7 @@
         <v>157</v>
       </c>
       <c r="E77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2396,7 +2391,7 @@
         <v>158</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2430,7 +2425,7 @@
         <v>160</v>
       </c>
       <c r="E80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2447,7 +2442,7 @@
         <v>111</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2464,7 +2459,7 @@
         <v>161</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2566,7 +2561,7 @@
         <v>157</v>
       </c>
       <c r="E88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2617,7 +2612,7 @@
         <v>168</v>
       </c>
       <c r="E91" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2634,7 +2629,7 @@
         <v>169</v>
       </c>
       <c r="E92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2668,7 +2663,7 @@
         <v>135</v>
       </c>
       <c r="E94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2685,7 +2680,7 @@
         <v>144</v>
       </c>
       <c r="E95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2736,7 +2731,7 @@
         <v>171</v>
       </c>
       <c r="E98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2753,7 +2748,7 @@
         <v>172</v>
       </c>
       <c r="E99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:5">
